--- a/Code/Results/Cases/Case_7_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_55/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>26.4314635397089</v>
       </c>
       <c r="C2">
-        <v>16.49887617508652</v>
+        <v>16.49887617508655</v>
       </c>
       <c r="D2">
-        <v>5.476213471232206</v>
+        <v>5.476213471232312</v>
       </c>
       <c r="E2">
-        <v>6.567557168931095</v>
+        <v>6.567557168931093</v>
       </c>
       <c r="F2">
-        <v>40.5322672546022</v>
+        <v>40.53226725460225</v>
       </c>
       <c r="G2">
-        <v>2.089605955394365</v>
+        <v>2.089605955394498</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.157412325861098</v>
+        <v>6.157412325861127</v>
       </c>
       <c r="M2">
-        <v>14.84405541289495</v>
+        <v>14.84405541289497</v>
       </c>
       <c r="N2">
-        <v>14.64326471548362</v>
+        <v>14.64326471548364</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.74637875345757</v>
+        <v>24.74637875345753</v>
       </c>
       <c r="C3">
-        <v>15.32829315169676</v>
+        <v>15.32829315169669</v>
       </c>
       <c r="D3">
-        <v>5.542254686066956</v>
+        <v>5.542254686067123</v>
       </c>
       <c r="E3">
-        <v>6.491028273770658</v>
+        <v>6.491028273770462</v>
       </c>
       <c r="F3">
-        <v>38.74596012247693</v>
+        <v>38.74596012247701</v>
       </c>
       <c r="G3">
-        <v>2.102314676277003</v>
+        <v>2.102314676276868</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.085496350776462</v>
+        <v>6.085496350776407</v>
       </c>
       <c r="M3">
-        <v>14.19001634789075</v>
+        <v>14.19001634789074</v>
       </c>
       <c r="N3">
-        <v>14.8293335476948</v>
+        <v>14.82933354769492</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>23.67791248673979</v>
       </c>
       <c r="C4">
-        <v>14.57512838326416</v>
+        <v>14.57512838326396</v>
       </c>
       <c r="D4">
-        <v>5.585779463962061</v>
+        <v>5.585779463962186</v>
       </c>
       <c r="E4">
-        <v>6.444301074834197</v>
+        <v>6.444301074834126</v>
       </c>
       <c r="F4">
-        <v>37.65502762941365</v>
+        <v>37.65502762941357</v>
       </c>
       <c r="G4">
-        <v>2.110272574839023</v>
+        <v>2.110272574839158</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.044732475346335</v>
+        <v>6.044732475346389</v>
       </c>
       <c r="M4">
-        <v>13.7866984584184</v>
+        <v>13.78669845841839</v>
       </c>
       <c r="N4">
-        <v>14.94858382217171</v>
+        <v>14.94858382217162</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.23417817522076</v>
+        <v>23.23417817522074</v>
       </c>
       <c r="C5">
-        <v>14.25937025011882</v>
+        <v>14.25937025011875</v>
       </c>
       <c r="D5">
-        <v>5.60422159093439</v>
+        <v>5.60422159093411</v>
       </c>
       <c r="E5">
-        <v>6.425298367255014</v>
+        <v>6.425298367255082</v>
       </c>
       <c r="F5">
         <v>37.21224549964167</v>
       </c>
       <c r="G5">
-        <v>2.113558095331101</v>
+        <v>2.113558095331102</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.028953207004687</v>
+        <v>6.028953207004715</v>
       </c>
       <c r="M5">
-        <v>13.6220663162768</v>
+        <v>13.62206631627675</v>
       </c>
       <c r="N5">
-        <v>14.9983955369117</v>
+        <v>14.99839553691166</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.16000081207943</v>
+        <v>23.16000081207944</v>
       </c>
       <c r="C6">
-        <v>14.20640007409283</v>
+        <v>14.20640007409267</v>
       </c>
       <c r="D6">
-        <v>5.607325359710902</v>
+        <v>5.607325359711132</v>
       </c>
       <c r="E6">
         <v>6.422144609858618</v>
       </c>
       <c r="F6">
-        <v>37.13883997705642</v>
+        <v>37.13883997705659</v>
       </c>
       <c r="G6">
-        <v>2.114106329616333</v>
+        <v>2.114106329616204</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.026382741512804</v>
+        <v>6.026382741512911</v>
       </c>
       <c r="M6">
-        <v>13.59471785438078</v>
+        <v>13.59471785438087</v>
       </c>
       <c r="N6">
-        <v>15.00673909847218</v>
+        <v>15.00673909847231</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.6719615299799</v>
+        <v>23.67196152997985</v>
       </c>
       <c r="C7">
-        <v>14.57090597024972</v>
+        <v>14.57090597024966</v>
       </c>
       <c r="D7">
-        <v>5.586025376875197</v>
+        <v>5.586025376875085</v>
       </c>
       <c r="E7">
-        <v>6.444044673042759</v>
+        <v>6.444044673042891</v>
       </c>
       <c r="F7">
-        <v>37.649048436586</v>
+        <v>37.64904843658579</v>
       </c>
       <c r="G7">
         <v>2.110316707307228</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.044516327684736</v>
+        <v>6.044516327684692</v>
       </c>
       <c r="M7">
-        <v>13.78447905762779</v>
+        <v>13.78447905762776</v>
       </c>
       <c r="N7">
-        <v>14.9492507260987</v>
+        <v>14.94925072609855</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.85754029401533</v>
+        <v>25.85754029401528</v>
       </c>
       <c r="C8">
-        <v>16.1022890712364</v>
+        <v>16.1022890712366</v>
       </c>
       <c r="D8">
-        <v>5.498339361722005</v>
+        <v>5.498339361721767</v>
       </c>
       <c r="E8">
-        <v>6.541098499594254</v>
+        <v>6.541098499594253</v>
       </c>
       <c r="F8">
-        <v>39.91528759281702</v>
+        <v>39.91528759281693</v>
       </c>
       <c r="G8">
-        <v>2.093958158892399</v>
+        <v>2.093958158892532</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.131898790032434</v>
+        <v>6.131898790032348</v>
       </c>
       <c r="M8">
-        <v>14.61898790553871</v>
+        <v>14.61898790553867</v>
       </c>
       <c r="N8">
-        <v>14.70635541126627</v>
+        <v>14.70635541126621</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.98932242005255</v>
+        <v>29.98932242005259</v>
       </c>
       <c r="C9">
-        <v>18.84130812940725</v>
+        <v>18.84130812940724</v>
       </c>
       <c r="D9">
-        <v>5.352273601170963</v>
+        <v>5.352273601171023</v>
       </c>
       <c r="E9">
-        <v>6.734900065963388</v>
+        <v>6.734900065963386</v>
       </c>
       <c r="F9">
-        <v>44.39756600090088</v>
+        <v>44.39756600090087</v>
       </c>
       <c r="G9">
-        <v>2.062919081887535</v>
+        <v>2.06291908188767</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.331169402914513</v>
+        <v>6.331169402914521</v>
       </c>
       <c r="M9">
         <v>16.23660238995743</v>
       </c>
       <c r="N9">
-        <v>14.27203823953025</v>
+        <v>14.27203823953026</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.96676684198147</v>
+        <v>32.96676684198152</v>
       </c>
       <c r="C10">
-        <v>20.70700036892828</v>
+        <v>20.70700036892835</v>
       </c>
       <c r="D10">
-        <v>5.264566224682373</v>
+        <v>5.264566224682258</v>
       </c>
       <c r="E10">
-        <v>6.881715909322068</v>
+        <v>6.881715909322006</v>
       </c>
       <c r="F10">
-        <v>47.71151207196452</v>
+        <v>47.71151207196456</v>
       </c>
       <c r="G10">
-        <v>2.040451563899382</v>
+        <v>2.040451563899257</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.496121032193774</v>
+        <v>6.496121032193742</v>
       </c>
       <c r="M10">
-        <v>17.55600262988714</v>
+        <v>17.55600262988718</v>
       </c>
       <c r="N10">
-        <v>13.98254257969064</v>
+        <v>13.98254257969059</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.27864483749531</v>
+        <v>34.27864483749541</v>
       </c>
       <c r="C11">
-        <v>21.52762076966686</v>
+        <v>21.52762076966695</v>
       </c>
       <c r="D11">
-        <v>5.230004954034457</v>
+        <v>5.230004954034386</v>
       </c>
       <c r="E11">
-        <v>6.950106743168674</v>
+        <v>6.950106743168807</v>
       </c>
       <c r="F11">
-        <v>49.22590814289036</v>
+        <v>49.22590814289039</v>
       </c>
       <c r="G11">
-        <v>2.030225297155963</v>
+        <v>2.03022529715623</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.575588645772203</v>
+        <v>6.575588645772214</v>
       </c>
       <c r="M11">
-        <v>18.2591449981621</v>
+        <v>18.25914499816214</v>
       </c>
       <c r="N11">
-        <v>13.85844812410356</v>
+        <v>13.85844812410351</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.76976523770682</v>
+        <v>34.76976523770669</v>
       </c>
       <c r="C12">
-        <v>21.83469035770469</v>
+        <v>21.83469035770457</v>
       </c>
       <c r="D12">
-        <v>5.2177972671963</v>
+        <v>5.217797267196325</v>
       </c>
       <c r="E12">
-        <v>6.976300496705025</v>
+        <v>6.976300496705029</v>
       </c>
       <c r="F12">
-        <v>49.80075311205884</v>
+        <v>49.80075311205879</v>
       </c>
       <c r="G12">
-        <v>2.026344337529794</v>
+        <v>2.026344337529659</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.606357766833219</v>
+        <v>6.606357766833234</v>
       </c>
       <c r="M12">
-        <v>18.5220412305135</v>
+        <v>18.52204123051341</v>
       </c>
       <c r="N12">
-        <v>13.81267607257868</v>
+        <v>13.81267607257869</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.66423703873842</v>
+        <v>34.66423703873829</v>
       </c>
       <c r="C13">
-        <v>21.76871488730766</v>
+        <v>21.76871488730736</v>
       </c>
       <c r="D13">
-        <v>5.220385261325942</v>
+        <v>5.220385261325906</v>
       </c>
       <c r="E13">
-        <v>6.970644888135218</v>
+        <v>6.970644888135216</v>
       </c>
       <c r="F13">
-        <v>49.67688062065442</v>
+        <v>49.67688062065429</v>
       </c>
       <c r="G13">
-        <v>2.027180684609055</v>
+        <v>2.027180684609058</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>6.599700294503184</v>
       </c>
       <c r="M13">
-        <v>18.46556680213581</v>
+        <v>18.46556680213573</v>
       </c>
       <c r="N13">
-        <v>13.82247733691839</v>
+        <v>13.82247733691841</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.31916005905732</v>
+        <v>34.31916005905745</v>
       </c>
       <c r="C14">
-        <v>21.55295511157181</v>
+        <v>21.55295511157178</v>
       </c>
       <c r="D14">
-        <v>5.228982267018853</v>
+        <v>5.228982267018862</v>
       </c>
       <c r="E14">
-        <v>6.952255378273757</v>
+        <v>6.952255378273689</v>
       </c>
       <c r="F14">
-        <v>49.2731705319057</v>
+        <v>49.27317053190585</v>
       </c>
       <c r="G14">
-        <v>2.02990622676794</v>
+        <v>2.029906226767946</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.578106231044045</v>
+        <v>6.578106231044034</v>
       </c>
       <c r="M14">
-        <v>18.28083941210849</v>
+        <v>18.28083941210856</v>
       </c>
       <c r="N14">
-        <v>13.85465715875908</v>
+        <v>13.85465715875907</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.10706869359534</v>
+        <v>34.10706869359531</v>
       </c>
       <c r="C15">
-        <v>21.42032810562319</v>
+        <v>21.42032810562309</v>
       </c>
       <c r="D15">
-        <v>5.234366463163856</v>
+        <v>5.234366463163965</v>
       </c>
       <c r="E15">
-        <v>6.94103190838022</v>
+        <v>6.941031908380214</v>
       </c>
       <c r="F15">
-        <v>49.02608027482484</v>
+        <v>49.02608027482477</v>
       </c>
       <c r="G15">
-        <v>2.031574345624055</v>
+        <v>2.03157434562406</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.564968630776777</v>
+        <v>6.564968630776795</v>
       </c>
       <c r="M15">
-        <v>18.16725876134491</v>
+        <v>18.16725876134488</v>
       </c>
       <c r="N15">
         <v>13.87453131455473</v>
@@ -1085,16 +1085,16 @@
         <v>20.65283504377429</v>
       </c>
       <c r="D16">
-        <v>5.266941434275394</v>
+        <v>5.266941434275644</v>
       </c>
       <c r="E16">
-        <v>6.877283968382547</v>
+        <v>6.877283968382413</v>
       </c>
       <c r="F16">
-        <v>47.61271006330472</v>
+        <v>47.61271006330471</v>
       </c>
       <c r="G16">
-        <v>2.041119130260875</v>
+        <v>2.04111913026088</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.491019994502029</v>
+        <v>6.491019994502026</v>
       </c>
       <c r="M16">
-        <v>17.50956329440963</v>
+        <v>17.50956329440965</v>
       </c>
       <c r="N16">
-        <v>13.99081562756423</v>
+        <v>13.99081562756421</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.11697502119063</v>
+        <v>32.11697502119056</v>
       </c>
       <c r="C17">
-        <v>20.17504668825034</v>
+        <v>20.17504668825015</v>
       </c>
       <c r="D17">
-        <v>5.288365869049526</v>
+        <v>5.288365869049555</v>
       </c>
       <c r="E17">
-        <v>6.83863005468113</v>
+        <v>6.838630054681058</v>
       </c>
       <c r="F17">
-        <v>46.74763288418681</v>
+        <v>46.74763288418682</v>
       </c>
       <c r="G17">
-        <v>2.04696798622268</v>
+        <v>2.046967986222684</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.446815503910047</v>
+        <v>6.446815503910037</v>
       </c>
       <c r="M17">
-        <v>17.09978060539741</v>
+        <v>17.09978060539738</v>
       </c>
       <c r="N17">
-        <v>14.06418095996788</v>
+        <v>14.06418095996793</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.67394032435815</v>
+        <v>31.673940324358</v>
       </c>
       <c r="C18">
-        <v>19.897567047667</v>
+        <v>19.89756704766692</v>
       </c>
       <c r="D18">
-        <v>5.301183164681135</v>
+        <v>5.301183164681314</v>
       </c>
       <c r="E18">
-        <v>6.81654375794194</v>
+        <v>6.816543757942012</v>
       </c>
       <c r="F18">
-        <v>46.25067603314668</v>
+        <v>46.2506760331466</v>
       </c>
       <c r="G18">
-        <v>2.050332081312254</v>
+        <v>2.050332081312255</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.421804530468068</v>
+        <v>6.421804530468139</v>
       </c>
       <c r="M18">
-        <v>16.89478898660579</v>
+        <v>16.89478898660577</v>
       </c>
       <c r="N18">
-        <v>14.10708495396585</v>
+        <v>14.10708495396607</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.52322977626892</v>
+        <v>31.5232297762689</v>
       </c>
       <c r="C19">
-        <v>19.80314882144497</v>
+        <v>19.80314882144499</v>
       </c>
       <c r="D19">
-        <v>5.305604715673962</v>
+        <v>5.305604715673837</v>
       </c>
       <c r="E19">
-        <v>6.809089069680148</v>
+        <v>6.809089069680349</v>
       </c>
       <c r="F19">
-        <v>46.08251123221614</v>
+        <v>46.08251123221612</v>
       </c>
       <c r="G19">
-        <v>2.051471319369271</v>
+        <v>2.05147131936954</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.41340630842646</v>
+        <v>6.41340630842651</v>
       </c>
       <c r="M19">
-        <v>16.83528977339291</v>
+        <v>16.8352897733929</v>
       </c>
       <c r="N19">
-        <v>14.12172933976861</v>
+        <v>14.12172933976855</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.19863811303028</v>
+        <v>32.19863811303031</v>
       </c>
       <c r="C20">
-        <v>20.22618181541383</v>
+        <v>20.2261818154138</v>
       </c>
       <c r="D20">
-        <v>5.286033269764456</v>
+        <v>5.286033269764367</v>
       </c>
       <c r="E20">
-        <v>6.842729242912912</v>
+        <v>6.84272924291292</v>
       </c>
       <c r="F20">
-        <v>46.83965616764997</v>
+        <v>46.83965616765005</v>
       </c>
       <c r="G20">
-        <v>2.046345418700776</v>
+        <v>2.046345418701037</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.451478007820594</v>
+        <v>6.45147800782061</v>
       </c>
       <c r="M20">
-        <v>17.14364968179512</v>
+        <v>17.14364968179509</v>
       </c>
       <c r="N20">
-        <v>14.05629716798532</v>
+        <v>14.05629716798535</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.42066699095715</v>
+        <v>34.42066699095718</v>
       </c>
       <c r="C21">
-        <v>21.61642578444473</v>
+        <v>21.61642578444467</v>
       </c>
       <c r="D21">
-        <v>5.226432237536414</v>
+        <v>5.226432237536426</v>
       </c>
       <c r="E21">
-        <v>6.957648220980042</v>
+        <v>6.957648220979912</v>
       </c>
       <c r="F21">
-        <v>49.39170862395765</v>
+        <v>49.39170862395763</v>
       </c>
       <c r="G21">
         <v>2.029105966657653</v>
@@ -1347,7 +1347,7 @@
         <v>6.584430221899748</v>
       </c>
       <c r="M21">
-        <v>18.33518734108508</v>
+        <v>18.33518734108511</v>
       </c>
       <c r="N21">
         <v>13.8451709125385</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.84018605203735</v>
+        <v>35.8401860520374</v>
       </c>
       <c r="C22">
-        <v>22.50377859183412</v>
+        <v>22.50377859183407</v>
       </c>
       <c r="D22">
-        <v>5.192676331111945</v>
+        <v>5.192676331111993</v>
       </c>
       <c r="E22">
-        <v>7.034517059420511</v>
+        <v>7.034517059420438</v>
       </c>
       <c r="F22">
-        <v>51.06795844228563</v>
+        <v>51.06795844228569</v>
       </c>
       <c r="G22">
-        <v>2.017784999619515</v>
+        <v>2.017784999619653</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.675289018008594</v>
+        <v>6.675289018008581</v>
       </c>
       <c r="M22">
-        <v>19.09445036474196</v>
+        <v>19.09445036474202</v>
       </c>
       <c r="N22">
-        <v>13.71437720659469</v>
+        <v>13.71437720659468</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.08537759289561</v>
+        <v>35.08537759289545</v>
       </c>
       <c r="C23">
-        <v>22.03199343326064</v>
+        <v>22.03199343326047</v>
       </c>
       <c r="D23">
-        <v>5.210174190898412</v>
+        <v>5.210174190898459</v>
       </c>
       <c r="E23">
-        <v>6.993304629876691</v>
+        <v>6.993304629876694</v>
       </c>
       <c r="F23">
-        <v>50.17237262684309</v>
+        <v>50.1723726268429</v>
       </c>
       <c r="G23">
-        <v>2.023835015298163</v>
+        <v>2.023835015297895</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.626417993117123</v>
+        <v>6.626417993117176</v>
       </c>
       <c r="M23">
-        <v>18.69089718652436</v>
+        <v>18.69089718652423</v>
       </c>
       <c r="N23">
-        <v>13.78347713589342</v>
+        <v>13.78347713589345</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.16173146588605</v>
+        <v>32.16173146588607</v>
       </c>
       <c r="C24">
-        <v>20.20307234947882</v>
+        <v>20.20307234947889</v>
       </c>
       <c r="D24">
-        <v>5.287086288438638</v>
+        <v>5.287086288438707</v>
       </c>
       <c r="E24">
-        <v>6.840875579924345</v>
+        <v>6.84087557992448</v>
       </c>
       <c r="F24">
-        <v>46.79805126105585</v>
+        <v>46.7980512610558</v>
       </c>
       <c r="G24">
-        <v>2.046626876212164</v>
+        <v>2.046626876212031</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.449368838115001</v>
+        <v>6.449368838115088</v>
       </c>
       <c r="M24">
         <v>17.1238243155032</v>
       </c>
       <c r="N24">
-        <v>14.05985918053632</v>
+        <v>14.0598591805363</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.85247962483538</v>
+        <v>28.85247962483545</v>
       </c>
       <c r="C25">
-        <v>18.12722227178261</v>
+        <v>18.12722227178273</v>
       </c>
       <c r="D25">
-        <v>5.388662814220111</v>
+        <v>5.388662814220235</v>
       </c>
       <c r="E25">
-        <v>6.681882730759678</v>
+        <v>6.681882730759813</v>
       </c>
       <c r="F25">
-        <v>43.18161878193108</v>
+        <v>43.18161878193099</v>
       </c>
       <c r="G25">
-        <v>2.071233039711272</v>
+        <v>2.071233039711267</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.274124697405423</v>
+        <v>6.274124697405456</v>
       </c>
       <c r="M25">
-        <v>15.80156132033877</v>
+        <v>15.80156132033875</v>
       </c>
       <c r="N25">
-        <v>14.38467375564293</v>
+        <v>14.38467375564288</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.4314635397089</v>
+        <v>20.63381652985279</v>
       </c>
       <c r="C2">
-        <v>16.49887617508655</v>
+        <v>14.26462922349248</v>
       </c>
       <c r="D2">
-        <v>5.476213471232312</v>
+        <v>3.998860260301348</v>
       </c>
       <c r="E2">
-        <v>6.567557168931093</v>
+        <v>8.364841824596542</v>
       </c>
       <c r="F2">
-        <v>40.53226725460225</v>
+        <v>24.41101527142799</v>
       </c>
       <c r="G2">
-        <v>2.089605955394498</v>
+        <v>34.16949824570356</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1.59659078226365</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.90096898406808</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.65690685848496</v>
       </c>
       <c r="L2">
-        <v>6.157412325861127</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>14.84405541289497</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14.64326471548364</v>
+        <v>7.131671507547126</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.65077940098205</v>
+      </c>
+      <c r="P2">
+        <v>12.29207373932112</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.74637875345753</v>
+        <v>19.23695983890547</v>
       </c>
       <c r="C3">
-        <v>15.32829315169669</v>
+        <v>13.4376525640994</v>
       </c>
       <c r="D3">
-        <v>5.542254686067123</v>
+        <v>3.964075988453381</v>
       </c>
       <c r="E3">
-        <v>6.491028273770462</v>
+        <v>8.190075821549065</v>
       </c>
       <c r="F3">
-        <v>38.74596012247701</v>
+        <v>23.49021269676824</v>
       </c>
       <c r="G3">
-        <v>2.102314676276868</v>
+        <v>32.71064458061656</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>1.855707282926113</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.73484817141686</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.51281157611341</v>
       </c>
       <c r="L3">
-        <v>6.085496350776407</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.19001634789074</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.82933354769492</v>
+        <v>6.92982537597357</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.04410564073566</v>
+      </c>
+      <c r="P3">
+        <v>12.4694449822338</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.67791248673979</v>
+        <v>18.32828949305874</v>
       </c>
       <c r="C4">
-        <v>14.57512838326396</v>
+        <v>12.90416330052398</v>
       </c>
       <c r="D4">
-        <v>5.585779463962186</v>
+        <v>3.94195794673592</v>
       </c>
       <c r="E4">
-        <v>6.444301074834126</v>
+        <v>8.079872100895413</v>
       </c>
       <c r="F4">
-        <v>37.65502762941357</v>
+        <v>22.92485735935956</v>
       </c>
       <c r="G4">
-        <v>2.110272574839158</v>
+        <v>31.80956819212291</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.019856378011252</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.63833108153147</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.43455765977467</v>
       </c>
       <c r="L4">
-        <v>6.044732475346389</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>13.78669845841839</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>14.94858382217162</v>
+        <v>6.802540797521869</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.6575274478585</v>
+      </c>
+      <c r="P4">
+        <v>12.58035143383217</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.23417817522074</v>
+        <v>17.9450993007652</v>
       </c>
       <c r="C5">
-        <v>14.25937025011875</v>
+        <v>12.68033435222851</v>
       </c>
       <c r="D5">
-        <v>5.60422159093411</v>
+        <v>3.932758079921186</v>
       </c>
       <c r="E5">
-        <v>6.425298367255082</v>
+        <v>8.034206801107276</v>
       </c>
       <c r="F5">
-        <v>37.21224549964167</v>
+        <v>22.6947822085097</v>
       </c>
       <c r="G5">
-        <v>2.113558095331102</v>
+        <v>31.44152384818877</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.088046888637736</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.60037373799832</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.40516762516111</v>
       </c>
       <c r="L5">
-        <v>6.028953207004715</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>13.62206631627675</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>14.99839553691166</v>
+        <v>6.749859312890229</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.49661174877977</v>
+      </c>
+      <c r="P5">
+        <v>12.6260695709501</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.16000081207944</v>
+        <v>17.8806895319571</v>
       </c>
       <c r="C6">
-        <v>14.20640007409267</v>
+        <v>12.64278107651563</v>
       </c>
       <c r="D6">
-        <v>5.607325359711132</v>
+        <v>3.931219315564341</v>
       </c>
       <c r="E6">
-        <v>6.422144609858618</v>
+        <v>8.026577637878374</v>
       </c>
       <c r="F6">
-        <v>37.13883997705659</v>
+        <v>22.65660667006937</v>
       </c>
       <c r="G6">
-        <v>2.114106329616204</v>
+        <v>31.38037459590849</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.099449100593813</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.59415375651496</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.40043621218974</v>
       </c>
       <c r="L6">
-        <v>6.026382741512911</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>13.59471785438087</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>15.00673909847231</v>
+        <v>6.741063504963035</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.46969271863584</v>
+      </c>
+      <c r="P6">
+        <v>12.63369318014101</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.67196152997985</v>
+        <v>18.32317398736249</v>
       </c>
       <c r="C7">
-        <v>14.57090597024966</v>
+        <v>12.90117062308408</v>
       </c>
       <c r="D7">
-        <v>5.586025376875085</v>
+        <v>3.941834623467459</v>
       </c>
       <c r="E7">
-        <v>6.444044673042891</v>
+        <v>8.079259341263457</v>
       </c>
       <c r="F7">
-        <v>37.64904843658579</v>
+        <v>22.92175279991426</v>
       </c>
       <c r="G7">
-        <v>2.110316707307228</v>
+        <v>31.80460736077527</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.020770725075958</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.63781361963747</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.43415127375173</v>
       </c>
       <c r="L7">
-        <v>6.044516327684692</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>13.78447905762776</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>14.94925072609855</v>
+        <v>6.801833561654605</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.65537074684952</v>
+      </c>
+      <c r="P7">
+        <v>12.5809658617655</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.85754029401528</v>
+        <v>20.16271775979537</v>
       </c>
       <c r="C8">
-        <v>16.1022890712366</v>
+        <v>13.98484452406756</v>
       </c>
       <c r="D8">
-        <v>5.498339361721767</v>
+        <v>3.987027208118137</v>
       </c>
       <c r="E8">
-        <v>6.541098499594253</v>
+        <v>8.305166380108711</v>
       </c>
       <c r="F8">
-        <v>39.91528759281693</v>
+        <v>24.09369379054018</v>
       </c>
       <c r="G8">
-        <v>2.093958158892532</v>
+        <v>33.66787087099745</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>1.684903449312929</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.84255111306494</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.60505983799104</v>
       </c>
       <c r="L8">
-        <v>6.131898790032348</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>14.61898790553867</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>14.70635541126621</v>
+        <v>7.062787524220599</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.44460675420702</v>
+      </c>
+      <c r="P8">
+        <v>12.35282862812414</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.98932242005259</v>
+        <v>23.36895750953861</v>
       </c>
       <c r="C9">
-        <v>18.84130812940724</v>
+        <v>15.90502234375261</v>
       </c>
       <c r="D9">
-        <v>5.352273601171023</v>
+        <v>4.06941601707867</v>
       </c>
       <c r="E9">
-        <v>6.734900065963386</v>
+        <v>8.726533861238888</v>
       </c>
       <c r="F9">
-        <v>44.39756600090087</v>
+        <v>26.38004764095745</v>
       </c>
       <c r="G9">
-        <v>2.06291908188767</v>
+        <v>37.26077731423639</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.044182153193081</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.28761065573923</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.02429863451334</v>
       </c>
       <c r="L9">
-        <v>6.331169402914521</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>16.23660238995743</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>14.27203823953026</v>
+        <v>7.546779467263481</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.87496518599505</v>
+      </c>
+      <c r="P9">
+        <v>11.92036075069347</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.96676684198152</v>
+        <v>25.42923857175691</v>
       </c>
       <c r="C10">
-        <v>20.70700036892835</v>
+        <v>17.23368642389805</v>
       </c>
       <c r="D10">
-        <v>5.264566224682258</v>
+        <v>4.140765706749993</v>
       </c>
       <c r="E10">
-        <v>6.881715909322006</v>
+        <v>9.021664803228454</v>
       </c>
       <c r="F10">
-        <v>47.71151207196456</v>
+        <v>27.89391914372883</v>
       </c>
       <c r="G10">
-        <v>2.040451563899257</v>
+        <v>39.58445244002215</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.455613354678125</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.58699417345516</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.27659717323441</v>
       </c>
       <c r="L10">
-        <v>6.496121032193742</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>17.55600262988718</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>13.98254257969059</v>
+        <v>7.787908508178461</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.74628268570931</v>
+      </c>
+      <c r="P10">
+        <v>11.61267473815415</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.27864483749541</v>
+        <v>25.84019788716655</v>
       </c>
       <c r="C11">
-        <v>21.52762076966695</v>
+        <v>18.17935116193523</v>
       </c>
       <c r="D11">
-        <v>5.230004954034386</v>
+        <v>4.314511777749043</v>
       </c>
       <c r="E11">
-        <v>6.950106743168807</v>
+        <v>9.297443244143349</v>
       </c>
       <c r="F11">
-        <v>49.22590814289039</v>
+        <v>27.32556883975384</v>
       </c>
       <c r="G11">
-        <v>2.03022529715623</v>
+        <v>38.40329318060392</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.240591028412851</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.25773405205492</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>16.44332932493086</v>
       </c>
       <c r="L11">
-        <v>6.575588645772214</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>18.25914499816214</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>13.85844812410351</v>
+        <v>7.113610077506434</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.24643589153945</v>
+      </c>
+      <c r="P11">
+        <v>11.52109409962179</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.76976523770669</v>
+        <v>25.76502544094508</v>
       </c>
       <c r="C12">
-        <v>21.83469035770457</v>
+        <v>18.71213124712186</v>
       </c>
       <c r="D12">
-        <v>5.217797267196325</v>
+        <v>4.462794520978222</v>
       </c>
       <c r="E12">
-        <v>6.976300496705029</v>
+        <v>9.687695798454987</v>
       </c>
       <c r="F12">
-        <v>49.80075311205879</v>
+        <v>26.50711106407738</v>
       </c>
       <c r="G12">
-        <v>2.026344337529659</v>
+        <v>36.88603016911502</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.406067459387329</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.90610521889437</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.6733261843483</v>
       </c>
       <c r="L12">
-        <v>6.606357766833234</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>18.52204123051341</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>13.81267607257869</v>
+        <v>6.570308854959777</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.63287045714681</v>
+      </c>
+      <c r="P12">
+        <v>11.54100067125026</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.66423703873829</v>
+        <v>25.30896410027874</v>
       </c>
       <c r="C13">
-        <v>21.76871488730736</v>
+        <v>18.97454459134582</v>
       </c>
       <c r="D13">
-        <v>5.220385261325906</v>
+        <v>4.597928189173039</v>
       </c>
       <c r="E13">
-        <v>6.970644888135216</v>
+        <v>10.16292662946812</v>
       </c>
       <c r="F13">
-        <v>49.67688062065429</v>
+        <v>25.41927779716221</v>
       </c>
       <c r="G13">
-        <v>2.027180684609058</v>
+        <v>34.96546094271158</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.664901852719924</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.51022133746652</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.90045128492398</v>
       </c>
       <c r="L13">
-        <v>6.599700294503184</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>18.46556680213573</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>13.82247733691841</v>
+        <v>6.109250121057752</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>12.8791266931456</v>
+      </c>
+      <c r="P13">
+        <v>11.64139861965532</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.31916005905745</v>
+        <v>24.81090704090674</v>
       </c>
       <c r="C14">
-        <v>21.55295511157178</v>
+        <v>19.04009665873236</v>
       </c>
       <c r="D14">
-        <v>5.228982267018862</v>
+        <v>4.687364533014293</v>
       </c>
       <c r="E14">
-        <v>6.952255378273689</v>
+        <v>10.54701511332991</v>
       </c>
       <c r="F14">
-        <v>49.27317053190585</v>
+        <v>24.52344595435715</v>
       </c>
       <c r="G14">
-        <v>2.029906226767946</v>
+        <v>33.41397352499001</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.579899895236712</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.21189632714957</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.36121259584532</v>
       </c>
       <c r="L14">
-        <v>6.578106231044034</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>18.28083941210856</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>13.85465715875907</v>
+        <v>5.84947966253534</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>12.27951342605769</v>
+      </c>
+      <c r="P14">
+        <v>11.74866367234022</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.10706869359531</v>
+        <v>24.60605709834317</v>
       </c>
       <c r="C15">
-        <v>21.42032810562309</v>
+        <v>18.99807121255502</v>
       </c>
       <c r="D15">
-        <v>5.234366463163965</v>
+        <v>4.704098028106314</v>
       </c>
       <c r="E15">
-        <v>6.941031908380214</v>
+        <v>10.63087898840421</v>
       </c>
       <c r="F15">
-        <v>49.02608027482477</v>
+        <v>24.24776402458798</v>
       </c>
       <c r="G15">
-        <v>2.03157434562406</v>
+        <v>32.94866175276881</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.787338623493948</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.13114304959351</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.23206495596105</v>
       </c>
       <c r="L15">
-        <v>6.564968630776795</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>18.16725876134488</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>13.87453131455473</v>
+        <v>5.793550577723895</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>12.10312093659215</v>
+      </c>
+      <c r="P15">
+        <v>11.78667210145045</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.88021338959899</v>
+        <v>23.81938481541768</v>
       </c>
       <c r="C16">
-        <v>20.65283504377429</v>
+        <v>18.42148098810408</v>
       </c>
       <c r="D16">
-        <v>5.266941434275644</v>
+        <v>4.643674362935379</v>
       </c>
       <c r="E16">
-        <v>6.877283968382413</v>
+        <v>10.40985411847522</v>
       </c>
       <c r="F16">
-        <v>47.61271006330471</v>
+        <v>23.75503527554197</v>
       </c>
       <c r="G16">
-        <v>2.04111913026088</v>
+        <v>32.21551009820808</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.505699040200261</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.07059662308729</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.2707618631281</v>
       </c>
       <c r="L16">
-        <v>6.491019994502026</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>17.50956329440965</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>13.99081562756421</v>
+        <v>5.770684591788636</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>11.84772726695292</v>
+      </c>
+      <c r="P16">
+        <v>11.88147901571169</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.11697502119056</v>
+        <v>23.48195639519692</v>
       </c>
       <c r="C17">
-        <v>20.17504668825015</v>
+        <v>17.93234106958473</v>
       </c>
       <c r="D17">
-        <v>5.288365869049555</v>
+        <v>4.548409972995894</v>
       </c>
       <c r="E17">
-        <v>6.838630054681058</v>
+        <v>10.01533379309472</v>
       </c>
       <c r="F17">
-        <v>46.74763288418682</v>
+        <v>23.87372834114267</v>
       </c>
       <c r="G17">
-        <v>2.046967986222684</v>
+        <v>32.51714839865201</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.752155838151037</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.18674222436008</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.58861223272828</v>
       </c>
       <c r="L17">
-        <v>6.446815503910037</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>17.09978060539738</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>14.06418095996793</v>
+        <v>5.879222598377545</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>11.98153866359562</v>
+      </c>
+      <c r="P17">
+        <v>11.8989761898352</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.673940324358</v>
+        <v>23.50514297191084</v>
       </c>
       <c r="C18">
-        <v>19.89756704766692</v>
+        <v>17.4709445171265</v>
       </c>
       <c r="D18">
-        <v>5.301183164681314</v>
+        <v>4.418832496607249</v>
       </c>
       <c r="E18">
-        <v>6.816543757942012</v>
+        <v>9.506687657282788</v>
       </c>
       <c r="F18">
-        <v>46.2506760331466</v>
+        <v>24.52500795757751</v>
       </c>
       <c r="G18">
-        <v>2.050332081312255</v>
+        <v>33.73357132170658</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.544614685849885</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.4637199203662</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>15.18084538272428</v>
       </c>
       <c r="L18">
-        <v>6.421804530468139</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>16.89478898660577</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>14.10708495396607</v>
+        <v>6.180907146533652</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>12.46609557858151</v>
+      </c>
+      <c r="P18">
+        <v>11.86582439554196</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.5232297762689</v>
+        <v>23.81638403314155</v>
       </c>
       <c r="C19">
-        <v>19.80314882144499</v>
+        <v>17.07489757565265</v>
       </c>
       <c r="D19">
-        <v>5.305604715673837</v>
+        <v>4.280832274418588</v>
       </c>
       <c r="E19">
-        <v>6.809089069680349</v>
+        <v>9.084768025408632</v>
       </c>
       <c r="F19">
-        <v>46.08251123221612</v>
+        <v>25.53915424885649</v>
       </c>
       <c r="G19">
-        <v>2.05147131936954</v>
+        <v>35.56468861918152</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.21734705582691</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.84592993702887</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.95444831922803</v>
       </c>
       <c r="L19">
-        <v>6.41340630842651</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>16.8352897733929</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>14.12172933976855</v>
+        <v>6.698715925740593</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.1881684715645</v>
+      </c>
+      <c r="P19">
+        <v>11.81285394310605</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.19863811303031</v>
+        <v>24.90110813872273</v>
       </c>
       <c r="C20">
-        <v>20.2261818154138</v>
+        <v>16.89550747430686</v>
       </c>
       <c r="D20">
-        <v>5.286033269764367</v>
+        <v>4.122877266667677</v>
       </c>
       <c r="E20">
-        <v>6.84272924291292</v>
+        <v>8.944238899148777</v>
       </c>
       <c r="F20">
-        <v>46.83965616765005</v>
+        <v>27.49093053627312</v>
       </c>
       <c r="G20">
-        <v>2.046345418701037</v>
+        <v>38.96540998522341</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.347076433977578</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.50409148787054</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>17.20148918344552</v>
       </c>
       <c r="L20">
-        <v>6.45147800782061</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>17.14364968179509</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>14.05629716798535</v>
+        <v>7.72111177789195</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.51758855604532</v>
+      </c>
+      <c r="P20">
+        <v>11.69287416719331</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.42066699095718</v>
+        <v>26.49474905549333</v>
       </c>
       <c r="C21">
-        <v>21.61642578444467</v>
+        <v>17.80924185540956</v>
       </c>
       <c r="D21">
-        <v>5.226432237536426</v>
+        <v>4.153296639871816</v>
       </c>
       <c r="E21">
-        <v>6.957648220979912</v>
+        <v>9.173308081581959</v>
       </c>
       <c r="F21">
-        <v>49.39170862395763</v>
+        <v>28.86832462057342</v>
       </c>
       <c r="G21">
-        <v>2.029105966657653</v>
+        <v>41.12806438762321</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.676534824555777</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.82615776289119</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>17.58519936453803</v>
       </c>
       <c r="L21">
-        <v>6.584430221899748</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>18.33518734108511</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>13.8451709125385</v>
+        <v>8.049696682525759</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.31945203934034</v>
+      </c>
+      <c r="P21">
+        <v>11.45533647996246</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.8401860520374</v>
+        <v>27.46533258744964</v>
       </c>
       <c r="C22">
-        <v>22.50377859183407</v>
+        <v>18.40631792801062</v>
       </c>
       <c r="D22">
-        <v>5.192676331111993</v>
+        <v>4.179898087707056</v>
       </c>
       <c r="E22">
-        <v>7.034517059420438</v>
+        <v>9.319711157215471</v>
       </c>
       <c r="F22">
-        <v>51.06795844228569</v>
+        <v>29.68726917928965</v>
       </c>
       <c r="G22">
-        <v>2.017784999619653</v>
+        <v>42.39391395970268</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.881710533715816</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.01370535307296</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>17.79032786491388</v>
       </c>
       <c r="L22">
-        <v>6.675289018008581</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>19.09445036474202</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>13.71437720659468</v>
+        <v>8.211386144368145</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>15.77569209328868</v>
+      </c>
+      <c r="P22">
+        <v>11.30207200797562</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.08537759289545</v>
+        <v>26.95113250634395</v>
       </c>
       <c r="C23">
-        <v>22.03199343326047</v>
+        <v>18.08966618320335</v>
       </c>
       <c r="D23">
-        <v>5.210174190898459</v>
+        <v>4.165776927823945</v>
       </c>
       <c r="E23">
-        <v>6.993304629876694</v>
+        <v>9.241681658405913</v>
       </c>
       <c r="F23">
-        <v>50.1723726268429</v>
+        <v>29.25081307428858</v>
       </c>
       <c r="G23">
-        <v>2.023835015297895</v>
+        <v>41.71964237331932</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.772482177095799</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.91316751152205</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>17.67982024237211</v>
       </c>
       <c r="L23">
-        <v>6.626417993117176</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>18.69089718652423</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>13.78347713589345</v>
+        <v>8.125417465781441</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.53358328541873</v>
+      </c>
+      <c r="P23">
+        <v>11.38379731009077</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.16173146588607</v>
+        <v>24.91926939429851</v>
       </c>
       <c r="C24">
-        <v>20.20307234947889</v>
+        <v>16.84579806324547</v>
       </c>
       <c r="D24">
-        <v>5.287086288438707</v>
+        <v>4.110642727525178</v>
       </c>
       <c r="E24">
-        <v>6.84087557992448</v>
+        <v>8.943509666501198</v>
       </c>
       <c r="F24">
-        <v>46.7980512610558</v>
+        <v>27.58461385902024</v>
       </c>
       <c r="G24">
-        <v>2.046626876212031</v>
+        <v>39.13737937470185</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.352453032301006</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.54207242768366</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>17.2835247917603</v>
       </c>
       <c r="L24">
-        <v>6.449368838115088</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>17.1238243155032</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>14.0598591805363</v>
+        <v>7.792676349258095</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.58622013735516</v>
+      </c>
+      <c r="P24">
+        <v>11.69513677902542</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.85247962483545</v>
+        <v>22.54401744130777</v>
       </c>
       <c r="C25">
-        <v>18.12722227178273</v>
+        <v>15.40754378547421</v>
       </c>
       <c r="D25">
-        <v>5.388662814220235</v>
+        <v>4.047822720935806</v>
       </c>
       <c r="E25">
-        <v>6.681882730759813</v>
+        <v>8.614659749850418</v>
       </c>
       <c r="F25">
-        <v>43.18161878193099</v>
+        <v>25.76433574352584</v>
       </c>
       <c r="G25">
-        <v>2.071233039711267</v>
+        <v>36.29767322057841</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>1.88437468208701</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.16253932492907</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.90147102923818</v>
       </c>
       <c r="L25">
-        <v>6.274124697405456</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>15.80156132033875</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>14.38467375564288</v>
+        <v>7.418962181910883</v>
       </c>
       <c r="O25">
+        <v>13.50126666235293</v>
+      </c>
+      <c r="P25">
+        <v>12.03590050924399</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.63381652985279</v>
+        <v>20.09699086469929</v>
       </c>
       <c r="C2">
-        <v>14.26462922349248</v>
+        <v>14.67654932497294</v>
       </c>
       <c r="D2">
-        <v>3.998860260301348</v>
+        <v>4.078292081685586</v>
       </c>
       <c r="E2">
-        <v>8.364841824596542</v>
+        <v>8.254882509767183</v>
       </c>
       <c r="F2">
-        <v>24.41101527142799</v>
+        <v>23.35536027503126</v>
       </c>
       <c r="G2">
-        <v>34.16949824570356</v>
+        <v>31.75969074546878</v>
       </c>
       <c r="H2">
-        <v>1.59659078226365</v>
+        <v>1.590190350823809</v>
       </c>
       <c r="J2">
-        <v>10.90096898406808</v>
+        <v>11.01436845578861</v>
       </c>
       <c r="K2">
-        <v>16.65690685848496</v>
+        <v>15.75505364394931</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.59939942794308</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.876645951001924</v>
       </c>
       <c r="N2">
-        <v>7.131671507547126</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.65077940098205</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.29207373932112</v>
+        <v>7.222419867922161</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.47255992280657</v>
+      </c>
+      <c r="R2">
+        <v>12.24570887196486</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.23695983890547</v>
+        <v>18.77988814437984</v>
       </c>
       <c r="C3">
-        <v>13.4376525640994</v>
+        <v>13.7640040640757</v>
       </c>
       <c r="D3">
-        <v>3.964075988453381</v>
+        <v>4.010410187531921</v>
       </c>
       <c r="E3">
-        <v>8.190075821549065</v>
+        <v>8.101551793958119</v>
       </c>
       <c r="F3">
-        <v>23.49021269676824</v>
+        <v>22.54566060592292</v>
       </c>
       <c r="G3">
-        <v>32.71064458061656</v>
+        <v>30.49711762679848</v>
       </c>
       <c r="H3">
-        <v>1.855707282926113</v>
+        <v>1.8213459673985</v>
       </c>
       <c r="J3">
-        <v>10.73484817141686</v>
+        <v>10.85163877405575</v>
       </c>
       <c r="K3">
-        <v>16.51281157611341</v>
+        <v>15.68690260422447</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.66919047186141</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.676504594298461</v>
       </c>
       <c r="N3">
-        <v>6.92982537597357</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>12.04410564073566</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.4694449822338</v>
+        <v>7.031119858696568</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.88341515587504</v>
+      </c>
+      <c r="R3">
+        <v>12.39618050769115</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.32828949305874</v>
+        <v>17.92233121272108</v>
       </c>
       <c r="C4">
-        <v>12.90416330052398</v>
+        <v>13.1741816082299</v>
       </c>
       <c r="D4">
-        <v>3.94195794673592</v>
+        <v>3.967671617589966</v>
       </c>
       <c r="E4">
-        <v>8.079872100895413</v>
+        <v>8.004873631900226</v>
       </c>
       <c r="F4">
-        <v>22.92485735935956</v>
+        <v>22.04773533381326</v>
       </c>
       <c r="G4">
-        <v>31.80956819212291</v>
+        <v>29.72103404153163</v>
       </c>
       <c r="H4">
-        <v>2.019856378011252</v>
+        <v>1.967934763864711</v>
       </c>
       <c r="J4">
-        <v>10.63833108153147</v>
+        <v>10.75330291313655</v>
       </c>
       <c r="K4">
-        <v>16.43455765977467</v>
+        <v>15.65281832009437</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.71290744590699</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.580574078360705</v>
       </c>
       <c r="N4">
-        <v>6.802540797521869</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.6575274478585</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.58035143383217</v>
+        <v>6.910848969260459</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.50742519122141</v>
+      </c>
+      <c r="R4">
+        <v>12.49092946899483</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.9450993007652</v>
+        <v>17.56052256230531</v>
       </c>
       <c r="C5">
-        <v>12.68033435222851</v>
+        <v>12.92644474846635</v>
       </c>
       <c r="D5">
-        <v>3.932758079921186</v>
+        <v>3.950000614153348</v>
       </c>
       <c r="E5">
-        <v>8.034206801107276</v>
+        <v>7.964817685106136</v>
       </c>
       <c r="F5">
-        <v>22.6947822085097</v>
+        <v>21.84487134386455</v>
       </c>
       <c r="G5">
-        <v>31.44152384818877</v>
+        <v>29.40493634575358</v>
       </c>
       <c r="H5">
-        <v>2.088046888637736</v>
+        <v>2.028864637259313</v>
       </c>
       <c r="J5">
-        <v>10.60037373799832</v>
+        <v>10.71364151649303</v>
       </c>
       <c r="K5">
-        <v>16.40516762516111</v>
+        <v>15.64080673573669</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.73093294330908</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.548357509278409</v>
       </c>
       <c r="N5">
-        <v>6.749859312890229</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.49661174877977</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.6260695709501</v>
+        <v>6.861166019917133</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.35077174089039</v>
+      </c>
+      <c r="R5">
+        <v>12.53014332508657</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.8806895319571</v>
+        <v>17.49969692969052</v>
       </c>
       <c r="C6">
-        <v>12.64278107651563</v>
+        <v>12.8848642047008</v>
       </c>
       <c r="D6">
-        <v>3.931219315564341</v>
+        <v>3.947051321976896</v>
       </c>
       <c r="E6">
-        <v>8.026577637878374</v>
+        <v>7.958126013488654</v>
       </c>
       <c r="F6">
-        <v>22.65660667006937</v>
+        <v>21.81119588935204</v>
       </c>
       <c r="G6">
-        <v>31.38037459590849</v>
+        <v>29.35247009666301</v>
       </c>
       <c r="H6">
-        <v>2.099449100593813</v>
+        <v>2.039054733762568</v>
       </c>
       <c r="J6">
-        <v>10.59415375651496</v>
+        <v>10.70708100306499</v>
       </c>
       <c r="K6">
-        <v>16.40043621218974</v>
+        <v>15.63892348716601</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.73393857940878</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.54342485309124</v>
       </c>
       <c r="N6">
-        <v>6.741063504963035</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.46969271863584</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.63369318014101</v>
+        <v>6.852876736469186</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.32455698843406</v>
+      </c>
+      <c r="R6">
+        <v>12.53669145251457</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.32317398736249</v>
+        <v>17.90890993475979</v>
       </c>
       <c r="C7">
-        <v>12.90117062308408</v>
+        <v>13.15738773532675</v>
       </c>
       <c r="D7">
-        <v>3.941834623467459</v>
+        <v>3.969646288287211</v>
       </c>
       <c r="E7">
-        <v>8.079259341263457</v>
+        <v>8.003599630929997</v>
       </c>
       <c r="F7">
-        <v>22.92175279991426</v>
+        <v>22.02161949167763</v>
       </c>
       <c r="G7">
-        <v>31.80460736077527</v>
+        <v>29.80247655102083</v>
       </c>
       <c r="H7">
-        <v>2.020770725075958</v>
+        <v>1.969534789869963</v>
       </c>
       <c r="J7">
-        <v>10.63781361963747</v>
+        <v>10.69776459040985</v>
       </c>
       <c r="K7">
-        <v>16.43415127375173</v>
+        <v>15.64195565550537</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.7042489583807</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.572690779073314</v>
       </c>
       <c r="N7">
-        <v>6.801833561654605</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.65537074684952</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.5809658617655</v>
+        <v>6.909491761550367</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.50179872459107</v>
+      </c>
+      <c r="R7">
+        <v>12.49163140504151</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.16271775979537</v>
+        <v>19.62666032902476</v>
       </c>
       <c r="C8">
-        <v>13.98484452406756</v>
+        <v>14.32634321570582</v>
       </c>
       <c r="D8">
-        <v>3.987027208118137</v>
+        <v>4.062620201144352</v>
       </c>
       <c r="E8">
-        <v>8.305166380108711</v>
+        <v>8.200202301703285</v>
       </c>
       <c r="F8">
-        <v>24.09369379054018</v>
+        <v>23.00213550324599</v>
       </c>
       <c r="G8">
-        <v>33.66787087099745</v>
+        <v>31.59614191267828</v>
       </c>
       <c r="H8">
-        <v>1.684903449312929</v>
+        <v>1.671383761575063</v>
       </c>
       <c r="J8">
-        <v>10.84255111306494</v>
+        <v>10.77942409465873</v>
       </c>
       <c r="K8">
-        <v>16.60505983799104</v>
+        <v>15.69489050746867</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.59573842748142</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.775796218861911</v>
       </c>
       <c r="N8">
-        <v>7.062787524220599</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.44460675420702</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.35282862812414</v>
+        <v>7.154902955611186</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.26138349616779</v>
+      </c>
+      <c r="R8">
+        <v>12.29819653740579</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.36895750953861</v>
+        <v>22.64191681149532</v>
       </c>
       <c r="C9">
-        <v>15.90502234375261</v>
+        <v>16.43316105666293</v>
       </c>
       <c r="D9">
-        <v>4.06941601707867</v>
+        <v>4.227888961363214</v>
       </c>
       <c r="E9">
-        <v>8.726533861238888</v>
+        <v>8.569331920206302</v>
       </c>
       <c r="F9">
-        <v>26.38004764095745</v>
+        <v>24.99613595230143</v>
       </c>
       <c r="G9">
-        <v>37.26077731423639</v>
+        <v>34.77309574478739</v>
       </c>
       <c r="H9">
-        <v>2.044182153193081</v>
+        <v>1.99071460876064</v>
       </c>
       <c r="J9">
-        <v>11.28761065573923</v>
+        <v>11.15203838135208</v>
       </c>
       <c r="K9">
-        <v>17.02429863451334</v>
+        <v>15.90268939888641</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.42264383923919</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.40875085249818</v>
       </c>
       <c r="N9">
-        <v>7.546779467263481</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>13.87496518599505</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>11.92036075069347</v>
+        <v>7.614968742642479</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.64550696892058</v>
+      </c>
+      <c r="R9">
+        <v>11.93657800302076</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.42923857175691</v>
+        <v>24.54145522051531</v>
       </c>
       <c r="C10">
-        <v>17.23368642389805</v>
+        <v>17.81267705720706</v>
       </c>
       <c r="D10">
-        <v>4.140765706749993</v>
+        <v>4.372694595263785</v>
       </c>
       <c r="E10">
-        <v>9.021664803228454</v>
+        <v>8.829841279753738</v>
       </c>
       <c r="F10">
-        <v>27.89391914372883</v>
+        <v>26.19786037631972</v>
       </c>
       <c r="G10">
-        <v>39.58445244002215</v>
+        <v>37.25567079306514</v>
       </c>
       <c r="H10">
-        <v>2.455613354678125</v>
+        <v>2.352341453320226</v>
       </c>
       <c r="J10">
-        <v>11.58699417345516</v>
+        <v>11.09451787155724</v>
       </c>
       <c r="K10">
-        <v>17.27659717323441</v>
+        <v>15.94706360327874</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.19432494197211</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.86101457086511</v>
       </c>
       <c r="N10">
-        <v>7.787908508178461</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>14.74628268570931</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>11.61267473815415</v>
+        <v>7.835586140702159</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.46864076268105</v>
+      </c>
+      <c r="R10">
+        <v>11.69324563314051</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.84019788716655</v>
+        <v>24.88853320188492</v>
       </c>
       <c r="C11">
-        <v>18.17935116193523</v>
+        <v>18.61356533627557</v>
       </c>
       <c r="D11">
-        <v>4.314511777749043</v>
+        <v>4.612178381245571</v>
       </c>
       <c r="E11">
-        <v>9.297443244143349</v>
+        <v>9.125020916162351</v>
       </c>
       <c r="F11">
-        <v>27.32556883975384</v>
+        <v>25.43273972708338</v>
       </c>
       <c r="G11">
-        <v>38.40329318060392</v>
+        <v>37.08430501481752</v>
       </c>
       <c r="H11">
-        <v>3.240591028412851</v>
+        <v>3.147982009701315</v>
       </c>
       <c r="J11">
-        <v>11.25773405205492</v>
+        <v>10.19762786604691</v>
       </c>
       <c r="K11">
-        <v>16.44332932493086</v>
+        <v>15.07293329771245</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.47994731350223</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.32454015527616</v>
       </c>
       <c r="N11">
-        <v>7.113610077506434</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.24643589153945</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.52109409962179</v>
+        <v>7.129727409227969</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.94438256068437</v>
+      </c>
+      <c r="R11">
+        <v>11.68910198593919</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.76502544094508</v>
+        <v>24.81577203593915</v>
       </c>
       <c r="C12">
-        <v>18.71213124712186</v>
+        <v>19.04839176030282</v>
       </c>
       <c r="D12">
-        <v>4.462794520978222</v>
+        <v>4.790311058232564</v>
       </c>
       <c r="E12">
-        <v>9.687695798454987</v>
+        <v>9.529949429048846</v>
       </c>
       <c r="F12">
-        <v>26.50711106407738</v>
+        <v>24.58511913307337</v>
       </c>
       <c r="G12">
-        <v>36.88603016911502</v>
+        <v>36.14093548040429</v>
       </c>
       <c r="H12">
-        <v>4.406067459387329</v>
+        <v>4.337082378843429</v>
       </c>
       <c r="J12">
-        <v>10.90610521889437</v>
+        <v>9.639794289780346</v>
       </c>
       <c r="K12">
-        <v>15.6733261843483</v>
+        <v>14.3569354703474</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.96295624078254</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.786436681178348</v>
       </c>
       <c r="N12">
-        <v>6.570308854959777</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>13.63287045714681</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>11.54100067125026</v>
+        <v>6.563957056093439</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.33121377245538</v>
+      </c>
+      <c r="R12">
+        <v>11.76523160594391</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.30896410027874</v>
+        <v>24.43004510373794</v>
       </c>
       <c r="C13">
-        <v>18.97454459134582</v>
+        <v>19.26851910845703</v>
       </c>
       <c r="D13">
-        <v>4.597928189173039</v>
+        <v>4.919298849150143</v>
       </c>
       <c r="E13">
-        <v>10.16292662946812</v>
+        <v>10.03032646447393</v>
       </c>
       <c r="F13">
-        <v>25.41927779716221</v>
+        <v>23.64683100790774</v>
       </c>
       <c r="G13">
-        <v>34.96546094271158</v>
+        <v>34.3216874019945</v>
       </c>
       <c r="H13">
-        <v>5.664901852719924</v>
+        <v>5.616567817235594</v>
       </c>
       <c r="J13">
-        <v>10.51022133746652</v>
+        <v>9.400509619764206</v>
       </c>
       <c r="K13">
-        <v>14.90045128492398</v>
+        <v>13.7374213270947</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.56709392115442</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.230865690534937</v>
       </c>
       <c r="N13">
-        <v>6.109250121057752</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>12.8791266931456</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>11.64139861965532</v>
+        <v>6.088278233812386</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>12.60392932375217</v>
+      </c>
+      <c r="R13">
+        <v>11.88934468396398</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.81090704090674</v>
+        <v>24.01221325073929</v>
       </c>
       <c r="C14">
-        <v>19.04009665873236</v>
+        <v>19.32852541978156</v>
       </c>
       <c r="D14">
-        <v>4.687364533014293</v>
+        <v>4.98695394186237</v>
       </c>
       <c r="E14">
-        <v>10.54701511332991</v>
+        <v>10.43962901529992</v>
       </c>
       <c r="F14">
-        <v>24.52344595435715</v>
+        <v>22.93590930701154</v>
       </c>
       <c r="G14">
-        <v>33.41397352499001</v>
+        <v>32.6347587221704</v>
       </c>
       <c r="H14">
-        <v>6.579899895236712</v>
+        <v>6.543503228873347</v>
       </c>
       <c r="J14">
-        <v>10.21189632714957</v>
+        <v>9.361837341784724</v>
       </c>
       <c r="K14">
-        <v>14.36121259584532</v>
+        <v>13.34660046380144</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.33935831700436</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.834882679455172</v>
       </c>
       <c r="N14">
-        <v>5.84947966253534</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>12.27951342605769</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>11.74866367234022</v>
+        <v>5.822337824451585</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.03428467163615</v>
+      </c>
+      <c r="R14">
+        <v>11.99516355209731</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.60605709834317</v>
+        <v>23.84051664074157</v>
       </c>
       <c r="C15">
-        <v>18.99807121255502</v>
+        <v>19.29553432719806</v>
       </c>
       <c r="D15">
-        <v>4.704098028106314</v>
+        <v>4.991228087055818</v>
       </c>
       <c r="E15">
-        <v>10.63087898840421</v>
+        <v>10.53405090715684</v>
       </c>
       <c r="F15">
-        <v>24.24776402458798</v>
+        <v>22.73970789388561</v>
       </c>
       <c r="G15">
-        <v>32.94866175276881</v>
+        <v>32.04804893563608</v>
       </c>
       <c r="H15">
-        <v>6.787338623493948</v>
+        <v>6.754339069549585</v>
       </c>
       <c r="J15">
-        <v>10.13114304959351</v>
+        <v>9.40759470607855</v>
       </c>
       <c r="K15">
-        <v>14.23206495596105</v>
+        <v>13.27025768017095</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.30437490464024</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.736366746073161</v>
       </c>
       <c r="N15">
-        <v>5.793550577723895</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>12.10312093659215</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>11.78667210145045</v>
+        <v>5.766871755592229</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.87006186752589</v>
+      </c>
+      <c r="R15">
+        <v>12.02572385586982</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.81938481541768</v>
+        <v>23.17029450002416</v>
       </c>
       <c r="C16">
-        <v>18.42148098810408</v>
+        <v>18.80209322562934</v>
       </c>
       <c r="D16">
-        <v>4.643674362935379</v>
+        <v>4.871889121205773</v>
       </c>
       <c r="E16">
-        <v>10.40985411847522</v>
+        <v>10.3506439067126</v>
       </c>
       <c r="F16">
-        <v>23.75503527554197</v>
+        <v>22.5346181970193</v>
       </c>
       <c r="G16">
-        <v>32.21551009820808</v>
+        <v>30.5897960321948</v>
       </c>
       <c r="H16">
-        <v>6.505699040200261</v>
+        <v>6.481627643037332</v>
       </c>
       <c r="J16">
-        <v>10.07059662308729</v>
+        <v>9.87861873137442</v>
       </c>
       <c r="K16">
-        <v>14.2707618631281</v>
+        <v>13.44773653384046</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.49926102134948</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.722311746581642</v>
       </c>
       <c r="N16">
-        <v>5.770684591788636</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>11.84772726695292</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>11.88147901571169</v>
+        <v>5.761941918673882</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.65538930236865</v>
+      </c>
+      <c r="R16">
+        <v>12.06391553681494</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.48195639519692</v>
+        <v>22.86846270661573</v>
       </c>
       <c r="C17">
-        <v>17.93234106958473</v>
+        <v>18.36305696728075</v>
       </c>
       <c r="D17">
-        <v>4.548409972995894</v>
+        <v>4.749684134645968</v>
       </c>
       <c r="E17">
-        <v>10.01533379309472</v>
+        <v>9.963866916237148</v>
       </c>
       <c r="F17">
-        <v>23.87372834114267</v>
+        <v>22.74259237395155</v>
       </c>
       <c r="G17">
-        <v>32.51714839865201</v>
+        <v>30.51801815634036</v>
       </c>
       <c r="H17">
-        <v>5.752155838151037</v>
+        <v>5.730233962827689</v>
       </c>
       <c r="J17">
-        <v>10.18674222436008</v>
+        <v>10.20280039880503</v>
       </c>
       <c r="K17">
-        <v>14.58861223272828</v>
+        <v>13.78178866992649</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.77176181320944</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.912136596783755</v>
       </c>
       <c r="N17">
-        <v>5.879222598377545</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>11.98153866359562</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>11.8989761898352</v>
+        <v>5.88666531897626</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.80016886953465</v>
+      </c>
+      <c r="R17">
+        <v>12.04612034967348</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.50514297191084</v>
+        <v>22.874622966705</v>
       </c>
       <c r="C18">
-        <v>17.4709445171265</v>
+        <v>17.95129421934723</v>
       </c>
       <c r="D18">
-        <v>4.418832496607249</v>
+        <v>4.609240646458501</v>
       </c>
       <c r="E18">
-        <v>9.506687657282788</v>
+        <v>9.439901686132115</v>
       </c>
       <c r="F18">
-        <v>24.52500795757751</v>
+        <v>23.3661523278751</v>
       </c>
       <c r="G18">
-        <v>33.73357132170658</v>
+        <v>31.46764703921668</v>
       </c>
       <c r="H18">
-        <v>4.544614685849885</v>
+        <v>4.518502785304223</v>
       </c>
       <c r="J18">
-        <v>10.4637199203662</v>
+        <v>10.53374721122326</v>
       </c>
       <c r="K18">
-        <v>15.18084538272428</v>
+        <v>14.31039304223795</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.16344956399441</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.306386258015751</v>
       </c>
       <c r="N18">
-        <v>6.180907146533652</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>12.46609557858151</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>11.86582439554196</v>
+        <v>6.205416773047001</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.27767261021314</v>
+      </c>
+      <c r="R18">
+        <v>11.98434092541215</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.81638403314155</v>
+        <v>23.13415372026088</v>
       </c>
       <c r="C19">
-        <v>17.07489757565265</v>
+        <v>17.60945287751226</v>
       </c>
       <c r="D19">
-        <v>4.280832274418588</v>
+        <v>4.468594120814788</v>
       </c>
       <c r="E19">
-        <v>9.084768025408632</v>
+        <v>8.982624842767224</v>
       </c>
       <c r="F19">
-        <v>25.53915424885649</v>
+        <v>24.28052399236545</v>
       </c>
       <c r="G19">
-        <v>35.56468861918152</v>
+        <v>33.07293066114458</v>
       </c>
       <c r="H19">
-        <v>3.21734705582691</v>
+        <v>3.17660882701508</v>
       </c>
       <c r="J19">
-        <v>10.84592993702887</v>
+        <v>10.88562329255395</v>
       </c>
       <c r="K19">
-        <v>15.95444831922803</v>
+        <v>14.96982429391248</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.6336208310894</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.841296427909432</v>
       </c>
       <c r="N19">
-        <v>6.698715925740593</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>13.1881684715645</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>11.81285394310605</v>
+        <v>6.73945883752751</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.98149013023946</v>
+      </c>
+      <c r="R19">
+        <v>11.90371659578753</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.90110813872273</v>
+        <v>24.07871602783284</v>
       </c>
       <c r="C20">
-        <v>16.89550747430686</v>
+        <v>17.49965685754179</v>
       </c>
       <c r="D20">
-        <v>4.122877266667677</v>
+        <v>4.327243878092398</v>
       </c>
       <c r="E20">
-        <v>8.944238899148777</v>
+        <v>8.764220407151427</v>
       </c>
       <c r="F20">
-        <v>27.49093053627312</v>
+        <v>25.94814536702756</v>
       </c>
       <c r="G20">
-        <v>38.96540998522341</v>
+        <v>36.34038041054717</v>
       </c>
       <c r="H20">
-        <v>2.347076433977578</v>
+        <v>2.259029917425442</v>
       </c>
       <c r="J20">
-        <v>11.50409148787054</v>
+        <v>11.28726779804342</v>
       </c>
       <c r="K20">
-        <v>17.20148918344552</v>
+        <v>15.96432506011139</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.27563834728838</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.7623637951424</v>
       </c>
       <c r="N20">
-        <v>7.72111177789195</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.51758855604532</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>11.69287416719331</v>
+        <v>7.776017270320949</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.2630785928759</v>
+      </c>
+      <c r="R20">
+        <v>11.75379512927518</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.49474905549333</v>
+        <v>25.41987426936633</v>
       </c>
       <c r="C21">
-        <v>17.80924185540956</v>
+        <v>18.26605363208186</v>
       </c>
       <c r="D21">
-        <v>4.153296639871816</v>
+        <v>4.456787587573262</v>
       </c>
       <c r="E21">
-        <v>9.173308081581959</v>
+        <v>8.947469687961679</v>
       </c>
       <c r="F21">
-        <v>28.86832462057342</v>
+        <v>26.69696456051627</v>
       </c>
       <c r="G21">
-        <v>41.12806438762321</v>
+        <v>39.89957820652402</v>
       </c>
       <c r="H21">
-        <v>2.676534824555777</v>
+        <v>2.537171549235545</v>
       </c>
       <c r="J21">
-        <v>11.82615776289119</v>
+        <v>10.39163263449002</v>
       </c>
       <c r="K21">
-        <v>17.58519936453803</v>
+        <v>15.9666066661549</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.07348138385219</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.10031730905091</v>
       </c>
       <c r="N21">
-        <v>8.049696682525759</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.31945203934034</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>11.45533647996246</v>
+        <v>8.081928910389806</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>14.97002475956935</v>
+      </c>
+      <c r="R21">
+        <v>11.57386306920662</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.46533258744964</v>
+        <v>26.22747409514189</v>
       </c>
       <c r="C22">
-        <v>18.40631792801062</v>
+        <v>18.75452596357185</v>
       </c>
       <c r="D22">
-        <v>4.179898087707056</v>
+        <v>4.553058365366056</v>
       </c>
       <c r="E22">
-        <v>9.319711157215471</v>
+        <v>9.068921120145044</v>
       </c>
       <c r="F22">
-        <v>29.68726917928965</v>
+        <v>27.09634049675354</v>
       </c>
       <c r="G22">
-        <v>42.39391395970268</v>
+        <v>42.153215641497</v>
       </c>
       <c r="H22">
-        <v>2.881710533715816</v>
+        <v>2.709686820474541</v>
       </c>
       <c r="J22">
-        <v>12.01370535307296</v>
+        <v>9.74680351519256</v>
       </c>
       <c r="K22">
-        <v>17.79032786491388</v>
+        <v>15.91430009062949</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.90298568935614</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.28420530697118</v>
       </c>
       <c r="N22">
-        <v>8.211386144368145</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>15.77569209328868</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.30207200797562</v>
+        <v>8.22794800002085</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.36315509283443</v>
+      </c>
+      <c r="R22">
+        <v>11.46592889024451</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.95113250634395</v>
+        <v>25.81617715370417</v>
       </c>
       <c r="C23">
-        <v>18.08966618320335</v>
+        <v>18.52177143863925</v>
       </c>
       <c r="D23">
-        <v>4.165776927823945</v>
+        <v>4.495262287851082</v>
       </c>
       <c r="E23">
-        <v>9.241681658405913</v>
+        <v>9.005030514424007</v>
       </c>
       <c r="F23">
-        <v>29.25081307428858</v>
+        <v>26.93384745595432</v>
       </c>
       <c r="G23">
-        <v>41.71964237331932</v>
+        <v>40.77236423971979</v>
       </c>
       <c r="H23">
-        <v>2.772482177095799</v>
+        <v>2.619245846126701</v>
       </c>
       <c r="J23">
-        <v>11.91316751152205</v>
+        <v>10.2121482278132</v>
       </c>
       <c r="K23">
-        <v>17.67982024237211</v>
+        <v>15.9682650499</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.01161660503336</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.20723731954844</v>
       </c>
       <c r="N23">
-        <v>8.125417465781441</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.53358328541873</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.38379731009077</v>
+        <v>8.151657382964306</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.1620485332354</v>
+      </c>
+      <c r="R23">
+        <v>11.52083141682601</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.91926939429851</v>
+        <v>24.09323690537543</v>
       </c>
       <c r="C24">
-        <v>16.84579806324547</v>
+        <v>17.45603424073405</v>
       </c>
       <c r="D24">
-        <v>4.110642727525178</v>
+        <v>4.313136985812658</v>
       </c>
       <c r="E24">
-        <v>8.943509666501198</v>
+        <v>8.758955491052694</v>
       </c>
       <c r="F24">
-        <v>27.58461385902024</v>
+        <v>26.03572107000213</v>
       </c>
       <c r="G24">
-        <v>39.13737937470185</v>
+        <v>36.48039926445993</v>
       </c>
       <c r="H24">
-        <v>2.352453032301006</v>
+        <v>2.264001276474587</v>
       </c>
       <c r="J24">
-        <v>11.54207242768366</v>
+        <v>11.32982359602793</v>
       </c>
       <c r="K24">
-        <v>17.2835247917603</v>
+        <v>16.03687080699875</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.33002445419254</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.81702245333278</v>
       </c>
       <c r="N24">
-        <v>7.792676349258095</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>14.58622013735516</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>11.69513677902542</v>
+        <v>7.849239889757034</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.33041993376741</v>
+      </c>
+      <c r="R24">
+        <v>11.75128324403555</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.54401744130777</v>
+        <v>21.87720934331893</v>
       </c>
       <c r="C25">
-        <v>15.40754378547421</v>
+        <v>15.90479193656852</v>
       </c>
       <c r="D25">
-        <v>4.047822720935806</v>
+        <v>4.180932971580435</v>
       </c>
       <c r="E25">
-        <v>8.614659749850418</v>
+        <v>8.472291814341776</v>
       </c>
       <c r="F25">
-        <v>25.76433574352584</v>
+        <v>24.48949863149919</v>
       </c>
       <c r="G25">
-        <v>36.29767322057841</v>
+        <v>33.80939514443052</v>
       </c>
       <c r="H25">
-        <v>1.88437468208701</v>
+        <v>1.849643213055245</v>
       </c>
       <c r="J25">
-        <v>11.16253932492907</v>
+        <v>11.1242273089769</v>
       </c>
       <c r="K25">
-        <v>16.90147102923818</v>
+        <v>15.85379016758056</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.47954292471261</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.22827741145503</v>
       </c>
       <c r="N25">
-        <v>7.418962181910883</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.50126666235293</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.03590050924399</v>
+        <v>7.494090522985486</v>
       </c>
       <c r="Q25">
+        <v>13.28882049770483</v>
+      </c>
+      <c r="R25">
+        <v>12.03179152589717</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
